--- a/batches/22/day_10/day_10.xlsx
+++ b/batches/22/day_10/day_10.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED4848-35CD-AE40-A521-F9B2F641CB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988B8D9-72D1-7347-B660-B58674585954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{E54E1891-7DEA-7C4A-94BA-74AE6BAA7780}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{E54E1891-7DEA-7C4A-94BA-74AE6BAA7780}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
     <sheet name="Self Join" sheetId="3" r:id="rId3"/>
+    <sheet name="Cross_join" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>Types Of Joins</t>
   </si>
@@ -441,12 +464,209 @@
   <si>
     <t>and p1.prod_id &lt; p2.prod_id</t>
   </si>
+  <si>
+    <t>Nested If</t>
+  </si>
+  <si>
+    <t>If within If</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Nested Query</t>
+  </si>
+  <si>
+    <t>Query in Query</t>
+  </si>
+  <si>
+    <t>Sub Queries</t>
+  </si>
+  <si>
+    <t>Sometime we don’t have data in the required format</t>
+  </si>
+  <si>
+    <t>We transform that data and use query instead of direct table</t>
+  </si>
+  <si>
+    <t>Chicken Salad</t>
+  </si>
+  <si>
+    <t>Cook It</t>
+  </si>
+  <si>
+    <t>Order It</t>
+  </si>
+  <si>
+    <t>cooked chicken</t>
+  </si>
+  <si>
+    <t>Chopped Veg</t>
+  </si>
+  <si>
+    <t>all sauce</t>
+  </si>
+  <si>
+    <t>Open and use / mix</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy </t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>chop</t>
+  </si>
+  <si>
+    <t>merinate</t>
+  </si>
+  <si>
+    <t>roast/grill</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>select specific</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>date_truc</t>
+  </si>
+  <si>
+    <t>result 22 Rows</t>
+  </si>
+  <si>
+    <t>O1 &lt; I1 &lt;I2 &lt;I3</t>
+  </si>
+  <si>
+    <t>Output of I3</t>
+  </si>
+  <si>
+    <t>Input for I2</t>
+  </si>
+  <si>
+    <t>Output of I2</t>
+  </si>
+  <si>
+    <t>Input for I1</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>res_i1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>res_i2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>res_i3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>res_i4</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Sub Query</t>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>Common Table Expression</t>
+  </si>
+  <si>
+    <t>select
+	s.store_name,
+	m.month,
+	coalesce(oc.no_of_orders,0)
+from
+	stores.stores s
+	-- Sub Query to get date combination
+	cross join 
+		monthly m
+	-- Sub query to get no of orders for each store and month combination
+	left join order_count oc
+		on s.store_id = oc.store_id
+			and m.month=oc.month
+order by
+	s.store_id,m.month</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>There should be some common column</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>we should same table structure</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>Union All</t>
+  </si>
+  <si>
+    <t>Set Theory</t>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+  <si>
+    <t>Intersect</t>
+  </si>
+  <si>
+    <t>Except</t>
+  </si>
+  <si>
+    <t>Table1 - Intersect of Table1 and Table2</t>
+  </si>
+  <si>
+    <t>A - AnB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,8 +714,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,8 +759,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -529,11 +773,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -556,8 +889,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,6 +920,2550 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>975629</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>182600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E45D508-5E2E-7233-1585-BC1CC5F087EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2725033" y="6730249"/>
+          <a:ext cx="4719942" cy="2695925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>984041</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513046</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Frame 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832B2313-016A-3CBE-8998-36BE28454F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733445" y="6757915"/>
+          <a:ext cx="4676290" cy="2645131"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4695"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>664437</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>197649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>193443</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>194217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Frame 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFBD8DC-02A2-668C-17E5-9719AC121F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406291" y="8158278"/>
+          <a:ext cx="3683841" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4556"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>162943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Frame 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FBDCEE-D795-3F0F-286F-8CD2DF810B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2511245" y="9565736"/>
+          <a:ext cx="5458604" cy="2372264"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2601"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>987246</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119811</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Frame 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB83EA1D-9B78-397E-3292-8CD8D71EAC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2736491" y="9771811"/>
+          <a:ext cx="5099169" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3774"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666151</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>440906</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Frame 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C69CD0-F34B-4C88-ED80-180A426D3C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3412754" y="10125926"/>
+          <a:ext cx="3925042" cy="1317419"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4331"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1001623</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91057</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>182113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Frame 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D6B120-5938-8475-92C4-37610CB5D68B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3742906" y="10399623"/>
+          <a:ext cx="3239698" cy="752415"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7404"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206671</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>796711</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91377</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70DD04F-EEC5-057C-F63B-061A20E643D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7922520" y="9442800"/>
+            <a:ext cx="590040" cy="209520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70DD04F-EEC5-057C-F63B-061A20E643D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7918200" y="9438487"/>
+              <a:ext cx="598680" cy="218145"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111991</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525631</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125894</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE0CDDF-F499-4211-64E5-0DB7636F5168}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7827840" y="9858240"/>
+            <a:ext cx="413640" cy="29880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE0CDDF-F499-4211-64E5-0DB7636F5168}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7823520" y="9853920"/>
+              <a:ext cx="422280" cy="38520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>643711</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11289</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172651</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42D6CFB-2035-90D9-4EE1-8F8314AB490A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8359560" y="9843120"/>
+            <a:ext cx="191880" cy="293040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42D6CFB-2035-90D9-4EE1-8F8314AB490A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8355240" y="9838795"/>
+              <a:ext cx="200520" cy="301691"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420413</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169329</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>94042</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7569F6-E4BA-8AC7-F5C4-33E2F3EFC5BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7311960" y="10317600"/>
+            <a:ext cx="1397520" cy="343800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7569F6-E4BA-8AC7-F5C4-33E2F3EFC5BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7307631" y="10313390"/>
+              <a:ext cx="1406178" cy="352220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105053</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>94718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>337809</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166315</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F4549E-4B5B-0CBE-59B9-39DF402EB95B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6996600" y="10863360"/>
+            <a:ext cx="1881360" cy="272880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F4549E-4B5B-0CBE-59B9-39DF402EB95B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6992273" y="10859113"/>
+              <a:ext cx="1890013" cy="281374"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187614</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>786534</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Frame 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A706F8BD-4385-FBED-A165-8D4CB373E2E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9532216" y="9409545"/>
+          <a:ext cx="3066761" cy="1219489"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>174047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8081</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>181263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Frame 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BF02C2-81D2-9A4B-B64C-9B35BBC917DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9576377" y="14620297"/>
+          <a:ext cx="3066761" cy="1219489"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239857</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>88323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16163</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Frame 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82926A4B-96B7-CC4E-BBB4-9D203976269F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9584459" y="13322300"/>
+          <a:ext cx="3066761" cy="1219489"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240723</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17029</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>197427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Frame 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5788D7CD-F9AC-284F-ABB3-FD5A2C9B3E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9585325" y="12009870"/>
+          <a:ext cx="3066761" cy="1219489"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219941</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>818861</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>111703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Frame 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68764E0-EEC9-5142-9149-7D3E205B29E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9564543" y="10711873"/>
+          <a:ext cx="3066761" cy="1219489"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>623880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459427</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>958</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C2F9DE-8A54-D9CF-7495-795244BE5F93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12511080" y="9935280"/>
+            <a:ext cx="665280" cy="137880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C2F9DE-8A54-D9CF-7495-795244BE5F93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12506758" y="9930960"/>
+              <a:ext cx="673925" cy="146520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>639720</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100147</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8027</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC4AE12-54AF-F0C2-61C1-5CA0B1F55A75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12526920" y="11267640"/>
+            <a:ext cx="290160" cy="34920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC4AE12-54AF-F0C2-61C1-5CA0B1F55A75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12522600" y="11263320"/>
+              <a:ext cx="298800" cy="43560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>522360</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>115787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266827</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>116347</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA76D476-B613-B059-DDDA-F98790CBDB6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12409560" y="12629520"/>
+            <a:ext cx="574200" cy="203760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA76D476-B613-B059-DDDA-F98790CBDB6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12405240" y="12625200"/>
+              <a:ext cx="582840" cy="212400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>649507</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>172627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127213</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106827</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280FC80A-B86A-0F03-95BB-5F1BDF440CF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13366440" y="12279960"/>
+            <a:ext cx="307440" cy="747000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280FC80A-B86A-0F03-95BB-5F1BDF440CF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13362022" y="12275698"/>
+              <a:ext cx="316277" cy="755525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381667</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678307</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139627</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9500F85E-831B-DF63-C838-39A588F286A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13098600" y="11122560"/>
+            <a:ext cx="296640" cy="514800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9500F85E-831B-DF63-C838-39A588F286A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13094280" y="11118240"/>
+              <a:ext cx="305280" cy="523440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>51107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>664627</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>90547</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D72379F-30DE-4DAE-2471-2FD1D93C68CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12296520" y="13784040"/>
+            <a:ext cx="1085040" cy="242640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D72379F-30DE-4DAE-2471-2FD1D93C68CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12292200" y="13779720"/>
+              <a:ext cx="1093680" cy="251280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>583560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>689173</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>48947</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9F5010-96C5-DDDB-B1FF-E9174A13AD40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12470760" y="15003000"/>
+            <a:ext cx="1765080" cy="607680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9F5010-96C5-DDDB-B1FF-E9174A13AD40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12466406" y="14998733"/>
+              <a:ext cx="1773787" cy="616214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>39907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>731293</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83707</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE4AD3-8DD5-DA23-E724-B251E7D4D7DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13853520" y="13366440"/>
+            <a:ext cx="424440" cy="653400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE4AD3-8DD5-DA23-E724-B251E7D4D7DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13849200" y="13362169"/>
+              <a:ext cx="433080" cy="661941"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545107</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>198427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>837173</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>41787</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E01FCC-6867-2B2F-AF1F-D439DE385A06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1374840" y="14744160"/>
+            <a:ext cx="2214000" cy="1265760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E01FCC-6867-2B2F-AF1F-D439DE385A06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1370522" y="14739899"/>
+              <a:ext cx="2222636" cy="1274281"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164213</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514467</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>129427</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7C4672-E095-CC48-15CF-0ACFEED1E759}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1925280" y="16246800"/>
+            <a:ext cx="6327720" cy="1476360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7C4672-E095-CC48-15CF-0ACFEED1E759}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1920946" y="16242531"/>
+              <a:ext cx="6336389" cy="1484898"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295813</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>68587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537373</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>179867</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="75" name="Ink 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD36168-8138-17EF-CA4F-2DC08DDA930C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4088880" y="15833520"/>
+            <a:ext cx="241560" cy="517680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="Ink 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD36168-8138-17EF-CA4F-2DC08DDA930C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084560" y="15829200"/>
+              <a:ext cx="250200" cy="526320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>922868</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>10097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E030F977-1DA9-CA62-C089-276133D485D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752601" y="19244733"/>
+          <a:ext cx="7772400" cy="6690298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822816</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>107323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134154</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>62606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Frame 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B62B106-5EAA-B6C7-000F-875321B3ED79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1645633" y="19300422"/>
+          <a:ext cx="7843591" cy="6949226"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>715494</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>35774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527676</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>196761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Frame 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5823B8-DDB6-93D9-6860-BF5BDE9ADF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468452" y="21285915"/>
+          <a:ext cx="4945844" cy="1189508"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4288"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>724436</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>169931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545563</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>26831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Frame 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D3F2F7-9722-81CF-720E-04B26F9365DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2477394" y="22860001"/>
+          <a:ext cx="4954789" cy="2119647"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3374"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:15:47.150"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 582 21065,'9'-1'0,"3"-1"1672,1 1-1672,1-2 594,8-2-594,32-8 304,19-1-304,-7 1 0,3 0 470,-14 6 0,-3 1-470,41-8 0,-49 10 0,-38 4 0,-3 0 0,1 0 0,76-16 0,-38 9 0,41-10 0,-64 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1347">1074 191 24575,'-4'5'0,"-1"1"0,0 5 0,1 0 0,0 1 0,1-1 0,2 3 0,-1-5 0,4 5 0,1 0 0,2-3 0,2 5 0,-1-7 0,-1 0 0,-1-5 0,-1 0 0,9-3 0,-2-2 0,16-2 0,1-7 0,2 1 0,31-22 0,-17 7 0,34-35 0,-33 26 0,5-26 0,-33 36 0,-2-17 0,-14 24 0,-4-5 0,1 10 0,-4 6 0,3 1 0,-20 3 0,-19-1 0,-4 9 0,-18 4 0,6 19 0,16-7 0,-17 23 0,35-21 0,-15 19 0,26-25 0,-3 3 0,16-15 0,1-1 0,7 7 0,0-3 0,1 1 0,-1-4 0,-4-6 0,-2 1 0,1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3014">1608 69 24575,'4'0'0,"2"0"0,1 8 0,-3-1 0,2 11 0,-5 23 0,1-4 0,-2 15 0,-3-12 0,-3 7 0,1-15 0,0-1 0,3-23 0,0-5 0,-2 2 0,2-3 0,-1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:49.929"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'19'31'0,"-3"33"0,-1 26 0,-1 0 0,-5-19 0,-1-1 0,0 9-251,-1-1 0,2 10 1,-1 4-1,-1-2 1,-2-10 250,-1 11 0,-3-8 0,0-4 0,1 20 0,-1-14 409,-1-16-409,-3-99 0,2 15 0,-5-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="917">373 628 24575,'0'-5'0,"0"-3"0,3-8 0,3-6 0,9-19 0,1 6 0,12-7 0,-11 25 0,9 6 0,-5 20 0,16 17 0,-8 10 0,2 24 0,-21 12 0,-24 15 0,-10 2 0,-2-33 0,1-9 0,19-40 0,6 1 0,41-33 0,4 4 0,1-6 0,0 0 0,5 5 0,-4-4 0,-32 20 0,-12 8 0,-1-1 0,-2 4 0,5 7 0,-4-7 0,4 5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:54.013"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 674 21894,'64'-29'0,"-3"-2"0,13-6 0,6-2 0,11-3 0,3 0-2022,-15 9 1,4 1 0,1 1 0,-1 1 2021,-4-1 0,-1 1 0,2 1 0,8 3 0,-5 6 0,7 2 0,3 2 0,3 1 0,-1 1 0,-3 2 32,-6 2 0,-1 2 1,-1 1-1,1 0 0,-2 1 1,0-2-33,14-2 0,0-2 0,-2 1 0,-2 1 0,-5 2 493,4 2 0,2 2 0,-13 1 0,-23 0-493,-17 0 0,-39 3 0,1 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:56.513"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1502 24575,'42'-41'0,"1"0"0,-3 9 0,3 1 0,20-17 0,7 2 0,1 12 0,3 6 0,7 1 0,4 3-327,-20 7 0,1 1 0,4 0 327,10 1 0,4 2 0,1-1 0,4-2 0,2-1 0,4-1 0,-6 2 0,5 0 0,0-1 0,-7 0 0,0 0 0,-6 0 0,1-1 0,4 1 0,1 0 0,-12 0 0,-18 1 0,-5 0 120,3-1 1,0 1-121,-4 0 0,-3 0 0,28-10 0,-29 13 0,-28 9 0,0-3 370,31-10 0,13-3-370,5 1 0,6-1 0,-1-1 0,6-2 0,-3 1 0,-8 5 0,-2 1 0,-4 1 0,12-2 0,-8 2 0,4 0 0,-51 14 0,-19 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1325">3912 0 24575,'-6'59'0,"2"18"0,0 10 0,1-7 0,-1 0 0,0 7 0,2-4 0,5-21 0,2-15 0,0-24 0,15 2 0,-8-16 0,6-8 0,-3-1 0,-3-3 0,5-5 0,-2 2 0,5-7 0,-1-6 0,2-10 0,-9-8 0,-3-20 0,-14-21 0,-8 12 0,4 5 0,-11 34 0,8 13 0,-4 0 0,0 6 0,5 3 0,0 5 0,4 0 0,-2-3 0,-4-5 0,-3-1 0,4-2 0,0 6 0,9 2 0,0 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2000">4610 311 24575,'0'24'0,"6"44"0,1 20 0,-3-1 0,2 11-887,1-14 0,3 12 1,1 1-1,1-7 887,3 2 0,2-6 0,0-1 369,-4-3 1,1-1-1,3-10-369,10-6 0,0-15 581,-9-19-581,1-9 0,-14-25 0,-2-5 464,-8-3 1,4 5-1,-4-2 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:54.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">187 0 24575,'-9'90'0,"-4"-9"0,-4 10 0,3-22 0,-1 2 0,0 3 0,-2 5 0,1 3 0,1 2 0,1 12 0,2 3 0,3-11 0,1-15 0,2-4 0,2 35 0,1-15 0,3-47 0,3 7 0,0-45 0,2-9 0,-2-1 0,-1 0 0,-2 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="817">300 990 24575,'2'6'0,"26"59"0,-9-5 0,3 1 0,1 1 0,1 13 0,1-15 0,-6-40 0,-5-15 0,-3-7 0,20-22 0,9-16 0,5-6 0,-6 8 0,4-4 0,14-17 0,8-9 0,-6 4 0,-5 6 0,-3 0 0,-5 2 0,1-3 0,-7 7 0,10-19 0,-26 22 0,-26 49 0,-3 30 0,-4 40 0,-6 15 0,-2 10 0,5-10 0,0 5 0,-1-4 0,-2 6 0,3-3 0,0 14 0,3-7 0,2-19 0,1-6 0,3-11 0,0-11 0,-2-26 0,4-9 0,-4-11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:20:16.396"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1820 189 24575,'0'77'0,"0"-11"0,0 12 0,0-11 0,1 8 0,-1 6 0,-1 4-1639,-2-3 1,0 6-1,-1 4 1,0 2 0,0-3-1,0-5 1266,1 16 1,0-6-1,0 1 1,0 7 372,-1-20 0,0 6 0,-1 5 0,1 0 0,-1-4 0,1-6 0,0-11 518,-2 16 0,1-13 1,1 2-519,0 17 0,2 2 0,-1-13 941,0-18 1,0-12-942,-1 5 0,3-1 0,-6-15 6240,7-13-6240,11-3 0,34 5 0,20 0 0,7-3 0,11-1 0,13 1-418,-24-10 0,8 1 0,7 1 1,4-1-1,1-1 0,-1-1 0,-3-2 418,10 1 0,0-1 0,0-2 0,0-1 0,2-2 0,1 0 0,-4-2 0,2 0 0,2-1 0,1-1 0,-3-2 0,-2-2 0,-5-3 0,13-3 0,-3-4 0,-3-3 0,-6-1 0,-5-1-806,15-5 1,-8-3 0,-7-1 805,16-4 0,-17-1 0,-9-8 0,-57 23 0,18-10 0,30-18 0,4 2 0,-2-18 0,3-8 0,-18 20 0,0-6 0,9-16 0,4-13 0,-4 0 1055,-13 11 1,-5 0 0,0-8-1056,-11 7 0,1-6 0,-2-3 0,-1-1 0,-4 3 10,-1-6 1,-3 3 0,-3-1 0,-3-4-11,1-12 0,-3-3 0,-3-2 0,-5 2 0,-5 7 0,-4-1 0,-3 3 0,-1 3-267,-3-8 1,-1 5 0,-2 2 266,-1 3 0,0 2 0,-2 9 0,-1 10 0,1 11 0,-3 3 675,5 22-675,-1 13 2919,-6 1-2919,-21-15 489,-8-11 1,-4-2-490,-31-13 0,11-5 0,-5 1 0,10 27 0,0 3 0,-5-10 0,-8 2 0,-7 12 0,-12 6 0,-4 2 0,14 5 0,-4 1 0,-2 2 0,-4 1-1235,7 0 0,-3 1 1,-2 0-1,-3 1 1,0 1 1234,5 2 0,-2 0 0,-2 1 0,-1 0 0,0 1 0,0 1 0,10 0 0,-2 1 0,-1 0 0,1 0 0,0 1 0,3 0 0,2 0-645,-16 1 1,5-1 0,2 1 0,-2 1 0,-2 0 644,3 2 0,-5 0 0,0 1 0,1 1 0,5-1 0,8 1-134,5-1 1,7 1 0,3 0 0,-6 0 133,-1 1 0,-4 1 0,-1 0 0,2 0 0,5 0 0,-15 3 0,5 0 0,-3 2 0,6-1 0,-4 1 0,1 1 0,5-2 0,4-1 0,4-2 0,1 1 0,-2 2 0,0 0 0,7-2 0,3-5 0,7-3 0,-11 3 4553,23-3-4553,33-1 4389,8-2-4389,9 0 0,-2-3 0,2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687">2276 1000 24575,'-15'81'0,"-4"11"0,-1 15 0,8-22 0,3 5 0,-3 0-556,-2-9 1,-2 0 0,1 8 555,4-1 0,0 11 0,2 3 0,-1-5 0,1-10 0,-2-5 0,1-10 0,1 5 0,1 1 0,0 6 0,1-3 0,0-11 0,-1 2 0,2-15 539,3-9-539,18-45 0,28-2 0,18-2 0,21-6 0,15-4 0,4 0-535,-19 5 1,2 0-1,3-1 1,3-2 534,0-2 0,4-3 0,2-1 0,-1 1 0,-4 0 0,5 2 0,-3 1 0,-1-1 0,1-2 0,7-6 0,2-3 0,-4-1 0,-7 3 0,-7 3 0,-6 2 0,-4-2 0,31-8 0,-18-1 0,-36 3 0,-45 23 746,5-7-746,2 3 0,3-6 0,1-6 2519,3-11-2519,-5-40 0,-2-11 0,7-14 0,-13 25 0,-1-16 0,-1-5 0,-1 7 0,-1 4 0,-1 3 0,-1-5-172,0-7 0,-1-6 1,-1-1-1,1 3 172,0 11 0,0 2 0,0 1 0,0 4 0,-1-10 0,-1 4 0,0 4 0,0-14 0,-1 13 0,-11 6 0,-1 42 0,-9 30 0,-31 22 0,-2 7 0,-10 6 0,2-1 0,-7 2 0,2-1 0,10-5 0,1-1 0,-5 0 0,-25 6 0,-6 0 0,5-9 343,0-13 1,3-6-344,20 0 0,-2-1 0,2-2 0,-24-5 0,-2-2 0,6 1 0,-6 0 0,4 0-2262,15 0 1,2 0 0,-1 0 2261,-13 0 0,-3 0 0,5 0 0,-18 0 0,13 0 0,3 0 0,22 0 0,5 0 0,12 2 0,0 1 0,25 3 1696,4-1 0,12-2 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3050">2820 1558 24575,'-3'24'0,"-4"38"0,-1 16 0,3 0 0,1 9-337,-1-16 0,-1 7 0,1 3 0,0-4 337,-1 9 0,2-3 0,0-2 0,1-6 0,0-2 0,1-6 0,-2-2 0,2-12 439,2-11-439,2-33 223,4-16-223,7 1 0,59-22 0,-1 11 0,7 1 0,1 0 0,3-1 0,-12 4 0,3-1 0,-3 1 0,16-1 0,-7 0 0,-21-2 0,-4 0 0,37-5 686,-59-4-686,-17 17 0,1-16 0,-1 13 0,-9-8 0,10-22 0,-6-44 0,-2 8 0,-1-5 0,-2 13 0,-4-5 0,-4-15 0,-4-11 0,-2 4 0,-1 22 0,-1 2 0,0-3 0,-1-23 0,0-5 0,-2 8 0,-5-5 0,1 11 0,12 30 0,-1 11 0,-9 16 0,5 34 0,-5 4 0,-17 27 0,-2 5 0,-6 8 0,0 3 0,-3 5 0,-3 3 0,-11 16 0,-3 4 0,1-3 0,5-10 0,2-2 0,3-2 0,-10 17 0,8-13 0,6-20 0,41-34 0,2-10 0,3 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266">3182 2190 24575,'-4'65'0,"1"0"0,-3 28 0,1-38 0,2-6 0,0-12 0,6-25 0,7-12 0,2-2 0,-1-1 0,4 0 0,-2 0 0,1 1 0,1-4 0,-4-5 0,4-14 0,11-31 0,-2 5 0,0-9 0,-9 22 0,-12 19 0,0-24 0,-9 13 0,0-20 0,-4 13 0,-3 5 0,3 15 0,-4 5 0,6 12 0,-7 0 0,2 0 0,-5 0 0,4 2 0,3-1 0,3 1 0,5 1 0,1 0 0,-1 2 0,3-2 0,-3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6900">3263 2258 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:20:30.946"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">366 906 24575,'0'2'0,"0"-1"0,5 45 0,-3 29 0,2-17 0,-2 7 0,-6 6 0,-3 7 0,-1 0 0,1-6 0,0-1 0,-2 4 0,-4 20 0,-1 6 0,-1-6 0,2-26 0,0-3 0,0 0 0,0 10 0,1 0 0,-1-7 0,-1-6 0,0-2 0,-1 21 0,2-4 0,1 9 0,-2-11 0,14-41 0,2-25 0,46 7 0,9-2 0,-2 2 0,15 5 0,7-1 0,9-1 0,10 0 0,4-1 0,-2 0-616,-3 0 0,-2-1 0,3-1 0,10-1 616,-26-5 0,7-1 0,6 0 0,1-1 0,1-1 0,-3-1 0,-4-1 0,-8-1-837,26-1 0,-11-2 0,-1-3 1,8-2 836,-10-1 0,8-1 0,2-2 0,0-2 0,-8 0 0,-11-2 0,10-4 0,-12-3 0,-1-3-429,12-4 0,0-4 1,-14 3 428,-27 5 0,-8 3 0,32-8 0,-68 19 1830,0 4-1830,-7-3 0,-6-82 0,-2 15 0,2 10 0,-3-19 0,0-6 0,-1 4-93,-1 6 1,-1 1 0,0-2-1,0-4 93,1 1 0,0-5 0,0-2 0,0-1 0,-1 2 0,0-2 0,0-2 0,-1 0 0,1 5 0,2 7 312,-1-10 1,2 8 0,1 1-313,0-6 0,1 0 0,2 20 0,-1 11 0,3 16 0,-5 40 0,-9 14 0,-28 11 0,-17 5 0,-2-2 0,-7 1 0,-2 0 1046,6 0 1,-1 0 0,-10-2-1047,-1-6 0,-11-1 0,-5-2 0,1-2 0,8-3-804,5-3 0,6-4 0,-1-1 1,-6-1 803,-5 0 0,-6-1 0,-3-1 0,1-2 0,4-2 0,-7-3 0,1-2 0,3-2 0,5 1-319,-6 0 0,5 0 0,1-1 319,1 0 0,1-1 0,9 2 0,4 2 0,6 1 0,-5 5 0,3-1 735,-26-4-735,35 10 0,5 3 3749,3-3-3749,-6 10 1247,45-12-1247,3 0 0,-2-1 0,50-1 0,-34 1 0,37-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2017">4683 745 24575,'0'85'0,"-2"-24"0,0 8 0,-2 8 0,-1 8 0,0 1-1321,0 7 0,0 2 0,0-2 1321,0-7 0,0-2 0,1 2 0,1 8 0,0 0 0,2-7 613,4 2 1,0-8-614,-3-3 0,1-7 648,5 4-648,-6-51 0,0-9 0,0-7 2088,3-5-2088,0 2 0,43 18 0,34 16 0,-4-12 0,18 1 0,5 0 0,-10-3 0,2 0 0,7-1 0,6-1-669,-19-6 0,5-2 1,5 0-1,3 0 0,-1-1 1,-2-1-1,-3-1 669,0 0 0,-2 0 0,-2-2 0,0 0 0,0-2 0,0 0 0,5-2 0,3 0 0,1-2 0,-4-1 0,-7-1 0,-9-1 0,5-1 0,-10-3 0,-6-2 0,10-5 0,-18-4 0,-38-3 0,-7 4 0,-5-29 0,7-14 4681,-9-29-4681,1 4 0,-2-11 0,-8 12 0,-3-4 0,0-3-482,3-2 0,0-3 0,-1-2 482,0 13 0,-2-2 0,0-1 0,0 1 0,1 4 0,0-1 0,0 3 0,0 4 0,0 2 0,1 5 0,-3-2 0,-2-17 0,-3-1 0,0 15 0,-6-2 0,-6-5 0,9 62 0,-1 14 0,-33 12 0,-18 5 0,-10-2 0,-12 1 0,0-1-195,6 0 1,-1-1 0,-13 1 194,20-5 0,-10 0 0,-6 1 0,-4-1 0,-1-1 0,4-1 0,5-1-1089,-10-1 0,4-3 0,2-1 0,-2 0 1,-5 0 1088,12 1 0,-4-1 0,-2 1 0,-1-1 0,0 0 0,2-1 0,3-1 0,-3-1 0,-1 0 0,2-2 0,3 0 0,6 0 0,7 0 0,-17-3 0,11-1 0,4 2 0,1 1 0,2 1 0,26 2 0,31 3 0,23 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3442">8738 894 24575,'3'15'0,"10"58"0,-8 15 0,0 13 0,1-29 0,1 1 0,-1 4 0,-3 0 0,-1 5 0,-1-1 0,1-6 0,1-3 0,-1-4 0,-1-4 0,-2 24 0,-2-11 0,2-8 0,-6-36 0,7-22 0,2-1 0,88 21 0,-11-18 0,14-2-1104,-13-3 1,9-1 0,5-1 0,1 1 1103,-16-3 0,0 1 0,2-1 0,3-1 0,4 0 0,-5-1 0,6 0 0,3-1 0,1-1 0,-1 1 0,-3 0 0,-7 0 0,23 1 0,-8 0 0,-1 0 0,3 0 0,-5 0 0,5-1 0,0 1 0,-8-1 0,-13-1 0,10 1 0,-13-2 0,-17 0 0,-10 0 0,-13-2 0,-35-8 0,0-32 0,-10-17 0,-2-31 0,-4-15 1136,4 41 1,-1 1 0,-3-9-1137,-1 0 0,-3-8 0,-2-4 0,1 1 0,2 9 0,-1-9 0,2 6 0,-5-4 0,-5-6 0,-5-9 0,-1 5 0,6 15 0,2 13 0,2 8 0,-8-16 0,2 13 0,9 32 0,11 20 0,-43 4 0,-27 6 0,10-3 0,-10 0 0,-5 0 0,3 0-692,7-1 1,3 0 0,-5 1-1,-11 2 692,13 1 0,-9 1 0,-7 0 0,-5 2 0,-2 0 0,-1 1 0,2 0 0,5 1 0,6-1-760,-10 3 1,6 0-1,3 1 1,0 0 0,-2 0-1,-5 1 760,6-2 0,-4 0 0,-3 0 0,-1 0 0,0 1 0,2 0 0,3 0 0,6 1 0,-23 6 0,2 2 0,6 0 0,8-2 0,10-3 0,-22 0 0,14-1 0,0 8 0,28-7 0,56-14 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4808">12298 879 24575,'2'79'0,"0"0"0,0 0 0,0 0 0,0 15 0,0 5 0,0-2 0,-2-4 0,-1 3 0,-2-4 0,1 1-633,0-13 0,0 3 0,0-2 0,0-2 633,-1 12 0,0-4 0,0-9 0,0-6 0,0-9 807,3 19-807,2-76 417,1-11-417,40 3 0,22 4 0,13-3 0,10-1-458,-20 1 0,7 0 0,5-1 1,4-1 457,-5-1 0,7-2 0,3-1 0,0 0 0,-3 0 0,-7 1 0,2 0 0,-8 1 0,1 0 0,5-2 0,14-2 0,10-2 0,1-1 0,-11 0 0,-21 4 1182,17-5-1182,-19 6 0,-17-10 0,-56-39 0,-5-4 0,-3-7 0,1 11 0,-2-7 0,-3-4 0,-5-10 0,-1-5 0,-2 2-731,1 3 0,-2 1 1,-1-1-1,0-2 731,-2-4 0,0-2 0,-1-1 0,-2-2 0,2 10 0,-2-5 0,-1 2 0,1 4 0,3 10 824,-11-20 0,2 10-824,-4-10 0,3 15 0,7 35 0,19 26 0,-30 12 0,-37 11 0,12 3 0,-12 5 0,-12 2-164,13-4 1,-9 2 0,-6 1 0,-3 1 0,0 0 0,5-1 163,7-2 0,2 0 0,1 1 0,-2-1 0,-2 0 0,-5 1 0,0-1 0,-5 0 0,-5 2 0,-1-1 0,0-1 0,3 0 0,6-3 0,7-1 0,-24 3 0,10-3 0,4-3 0,2 1 0,10-2 0,0 0 0,6-1 0,10-3 0,9-4 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6117">15861 585 24575,'-3'12'0,"-5"68"0,-6 4 0,0 15 0,5-4 0,1 9 0,-1-2-343,-3-5 0,-2-1 0,3-4 343,5-10 0,1-3 0,2-12 337,-1 21-337,4-66 171,22-17-171,56 14 0,-15-8 0,16 0 0,7 0 0,-4-1-739,-6-2 0,-1 1 1,2-2-1,5 0 739,7 0 0,7 1 0,3-2 0,-4-1 0,-6-2 0,-7-2 0,-3-3 0,-5-1 0,-5 0 0,28-2 0,-12-2 444,13-8-444,-94 9 0,-4-11 0,1-42 0,-2-20 0,-2 15 0,-3-4 0,2-2-286,1-7 1,1-3-1,-4-7 286,-2 5 0,-4-9 0,-2-3 0,-1 2 0,2 8 235,-4-13 0,0 7 0,-1-3-235,1 8 0,-1-5 0,-1 3 0,2 11 0,-5-14 0,1 21 0,1 31 0,12 27 0,-2 16 893,-12-4-893,-31 10 0,-19 6 0,-5-1 0,-9 3 0,-5 1 72,12-3 0,-4 1 0,-2 2 0,-3 1-72,6 1 0,-4 2 0,-1 1 0,0 0 0,2 1 0,5-2 0,1 1 0,1 0 0,1 0 0,2 1 0,-11 4 0,1 1 0,3 1 0,1-1 0,5-1 0,0 1 0,4-2 0,9-3 0,-11 3 0,12-4 0,-19 11 0,81-33 0,8-3 0,-4 3 0,0-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7538">16738 798 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9517">16640 742 24575,'3'10'0,"1"11"0,-3 9 0,-3 25 0,1 7 0,-6-5 0,6-15 0,-2-29 0,3-13 0,4-21 0,-3 11 0,3-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11257">1606 4150 24575,'35'-6'0,"23"1"0,22-1 0,12 1 0,-22 3 0,8 0 0,7 1 0,4 0 0,4 0 0,3-2 0,1 0-984,-9 0 1,4-2 0,3 0 0,2-1 0,2 1 0,2-1 0,0-1 0,1 2 0,-1-1 0,-1 1 847,-6 0 1,0 1-1,0 0 1,0 1-1,1-1 1,0 0 0,1 0-1,1 0 1,2-1-1,1 0 1,2-1-9,-14 1 0,4-1 1,2-1-1,2 0 0,2 0 1,0-1-1,1 1 1,0-1-1,-2 0 0,0 0 1,-3 0-1,-3 1 0,-2-1 1,-4 1-1,-4 0 144,22-3 0,-6 1 0,-4 0 0,-4 0 0,-1-1 0,0 1 0,1 0 0,4 0 88,-2 0 1,4 0-1,2 0 1,1-1 0,-1 1-1,-4 0 1,-5 0 0,-7 0-1,-8 1-88,37-7 0,-17 0 0,-8 2-39,0 3 1,-5-1 38,4-4 0,0 0 0,-11 6 0,5 1 0,11-2 0,11-2 0,3 2 0,-19 3 0,1 1 0,2 0 0,2 1 540,-12 1 0,1 1 1,1 0-1,3 0 1,4 0-541,7 0 0,5-1 0,3 0 0,1 0 0,-1 1 0,-5 0 463,3 2 1,-3 1-1,-1 0 1,0 0 0,3 0-464,-9-1 0,0-1 0,1 0 0,1 1 0,4 0 0,2 1 0,-5 1 0,5 1 0,3 0 0,1 1 0,0 0 0,-1 0 0,-4 0 0,-5-1 0,1 0 0,-5 0 0,-3 0 0,0 0 0,2 0 0,4 0 0,2 1 0,3 0 0,2 0 0,2 0 0,0 0 0,-1 0 0,-1 0 0,-2 0 0,1 0 0,1-1 0,-1 1 0,-3-1 0,-1-1 0,-5 0 0,10-2 0,-5-1 0,-3-1 0,1 0 0,1 0 0,9 0 0,4 0 0,-1 0 0,-5 0 0,-10-1 0,9-1 0,-10 0 0,-21-4 0,-16-11 0,-48 20 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:20:47.812"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1437 24575,'15'-3'0,"6"2"0,1-2 0,21 3 0,-10 0 0,16 0 0,30 0 0,2 0 0,-2 0 0,-15-2 0,-52-1 0,0-3 0,-10-2 0,22-89 0,-14 27 0,0-9 0,2-3 0,2-8 0,-2 1-405,-3 10 0,-2 1 1,-1-2 404,2-14 0,-1-2 0,-1 7 0,1-5 0,0 8 0,-2 11 0,0 9 0,1-1 0,-3 70 0,-6 6 0,3-3 0,-3-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:15:54.214"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'4'0'0,"3"0"0,2 0 0,13 0 0,15 5 0,3-3 0,25 3 0,4-5 0,6 3 0,-15 0 0,3 2 0,-6 1 0,1 0 0,9 0 0,1 0 0,-3 1 0,-3 0 0,34 1 0,-8-2 0,-29-1 0,-23-5 0,-19 2 0,-8-2 0,-4 0 0,-1-1 0,0 2 0,-3-2 0,0 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:15:58.655"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 37 24575,'3'8'0,"0"18"0,3 22 0,2 22 0,0 28 0,5-16 0,-6-3 0,1-34 0,-5-19 0,0-14 0,-3-6 0,2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="842">0 92 23766,'8'-10'0,"9"0"400,8-4-400,26-2 136,-14 6-136,31-6 68,-36 10-68,9-1 205,-29 5-205,-6 3 0,-5 1 0,-1 1 0,0-2 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1959">106 631 24575,'0'-1'0,"2"-1"0,2 1 0,2-2 0,4-2 0,-1 2 0,1-3 0,0 3 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,3-3 0,10-2 0,-8 2 0,5-4 0,-13 8 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2625">391 289 24575,'8'0'0,"1"3"0,4 8 0,-3 8 0,7 13 0,-7 10 0,13 55 0,-6-1 0,-7-37 0,-1-2 0,-1 6 0,-5-33 0,0-26 0,-3 0 0,1 0 0,-1-2 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:16:03.264"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 386 24575,'3'-2'0,"1"1"0,1 1 0,7 0 0,17 0 0,5 0 0,40-4 0,-5 4 0,7 0 0,1-2 0,7 0-306,4 2 0,7 0 0,-1 0 306,-14 0 0,-1 0 0,1 0 0,14 0 0,3 0 0,1 0 0,1 0 0,2 0 0,-3 0 0,-11 1 0,-2-1 0,-2-1 0,-5 0 0,-3-2 0,-2 1 0,21 0 0,-11-1 0,3-8 0,-12 8 0,-40-1 0,16-2 0,10 0 0,-12 0 0,5-2 459,13-1 0,0-1-459,-5 1 0,0 0 0,6-3 0,-2-1 0,-12 3 0,-4 2 0,27-4 0,-19 2 0,-26 10 0,-23 0 0,-6 1 0,-2 1 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="634">3555 1 24575,'0'21'0,"0"37"0,-4 30 0,2-7 0,0 3 0,-2-22 0,0-1 0,2 12 0,0-7 0,-1-15 0,3-21 0,0-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1833">3657 506 24575,'0'-3'0,"2"-3"0,0 1 0,2-4 0,-2 3 0,3 1 0,0 3 0,0-1 0,2 3 0,-4-2 0,9 8 0,-6-2 0,7 9 0,-9-6 0,2 6 0,-5 15 0,-2 2 0,-13 47 0,-16 2 0,-2 1 0,-17 8 0,26-49 0,-3 2 0,21-31 0,13-37 0,4 4 0,23-44 0,-2 21 0,6-4 0,-13 22 0,-11 17 0,-7 10 0,1 2 0,0-1 0,-1 2 0,0-2 0,2 0 0,3-2 0,-2 2 0,-1-3 0,-3 1 0,3-2 0,-2 0 0,-1 0 0,8-7 0,-10 8 0,9-6 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:16:07.014"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'32'5'0,"19"6"0,13 2 0,25 0 0,15 1-1214,-32-5 1,7 2 0,6-1-1,2 1 1,0-1 1213,-5-1 0,2-1 0,2-1 0,1 1 0,1-1 0,0 1 0,-4-1 0,2 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,-2-1 0,5 0 0,0 0 0,-2-1 0,-1 0 0,-3 0 0,-3 1 370,19 1 1,-4 1 0,-5 0 0,-8-3-371,-4-1 0,-7-1 0,-11 0 0,25 10 1039,-57-11-1039,0 8 0,24-5 0,41 10 1626,-37-10 0,7 0-1626,11 0 0,10 0 0,0 0 0,1-1 0,0-1 0,3-1-311,-14 0 0,3-1 0,-1 0 1,1 0 310,1 1 0,1-1 0,-2 0 0,-8-1-379,17-2 0,-9-1 379,-7 3 0,-13-2 0,-28-3 0,-33 5 0,2 0 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="716">4895 115 24575,'3'-1'0,"1"-1"0,-1 4 0,12 18 0,-7 65 0,-1-34 0,-1 3 0,-5 17 0,-2 1 0,-1-10 0,0-4 0,-2 14 0,0-23 0,4-31 0,0-14 0,-1-2 0,1-1 0,-2-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2150">5062 474 24575,'0'-3'0,"0"0"0,0 0 0,1 0 0,1 0 0,1 0 0,4-1 0,-1 1 0,8-2 0,-2 0 0,1 0 0,-2 0 0,-7 0 0,2 3 0,-2-2 0,0 4 0,0 1 0,1 2 0,3 11 0,-4 2 0,2 6 0,-10 15 0,1-15 0,-2 9 0,-3-19 0,-6 7 0,4-7 0,0 0 0,13-18 0,16-8 0,-5 2 0,3 1 0,-11 8 0,-3 3 0,0 0 0,3 4 0,2 7 0,-2 10 0,2 1 0,-8 15 0,2-16 0,-4 5 0,-1-14 0,-1-2 0,-9 3 0,-6-5 0,4 1 0,-2-5 0,14-4 0,-1 0 0,-1-2 0,-3-5 0,4 4 0,-1-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:46.033"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 143 24575,'57'0'0,"41"5"0,-32 2 0,6-2 0,1 2 0,-5 4 0,6-7 0,5-1 0,-24 0 0,-1-1 0,6-2 0,2 0 0,7 0 0,-7 0 0,3 0 0,13 0 0,-49 0 0,-10 0 0,-12 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="797">1521 0 24575,'2'5'0,"-1"29"0,6 18 0,-1 31 0,0 4 0,-1-32 0,-2-13 0,-3-33 0,3 1 0,-3-7 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1897">1773 146 24575,'6'0'0,"6"3"0,-2 7 0,3 4 0,-2 11 0,-3-1 0,-2-2 0,-1-2 0,-4-11 0,1 3 0,-2-4 0,0 1 0,0-4 0,0-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:49.163"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 96 24575,'32'-9'0,"35"2"0,-2-5 0,12 8 0,19-5 0,-40 3 0,10-4 0,-2-1 0,-13 3 0,32-7 0,-66 15 0,5 0 0,-5-2 0,-3 1 0,6-1 0,1 2 0,-6 0 0,1 0 0,-13 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:51.672"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 566 24014,'78'-35'0,"0"1"0,1-1 0,4 1 0,3 1 0,0 0 0,3-3 0,2 0 0,4 1-1977,-13 8 0,4 1 0,-1 1 0,-7 2 1977,-6-1 0,-6 2 0,1 1 571,8-1 0,1 1 0,-17 4-571,-16 3 1445,-8 2-1445,-32 14 0,-1-1 0,-2 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-20T16:18:52.130"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'7'5'0,"4"23"0,-6 27 0,-4 16 0,2-2 0,0 6 0,-1 0 0,-2-5 0,-1-1 0,2 5 0,0 6 0,2 7 0,0-2 0,1-10-316,2 4 1,1-5 315,5 30 0,1-8 156,5-11-156,-6-41 0,-7-27 0,-5-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="900">328 980 22457,'5'-10'0,"22"-46"1030,24-20-1030,-11 16 0,4-3 178,3 6 0,0 4-178,-9 14 0,-4 4 180,11-9-180,-24 40 552,-3 13-552,10 19 0,-9 19 0,-2 7 0,5 23 0,-18 10 0,-9 2 0,-16-1 0,7-36 0,-1-5 0,-2-8 0,10-31 0,4-6 0,-2-2 0,2-5 0,7-1 0,1 0 0,19 19 0,-10 18 0,15 44 0,-31-12 0,-8 4 0,2-14 0,-8 3 0,-22 22 0,-13 10 0,0-12 0,6-21 0,-2-2 0,-7 11 0,-4 6 0,10-13 0,-2-3 0,5-12 0,13-31 0,21-11 0,-15 4 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD416457-80FD-D74A-AF33-D3A78E75DAC9}">
   <dimension ref="C2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A32" zoomScale="192" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD7416-4BE0-CD45-9763-EADCCA3BED64}">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="161" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="161" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,25 +4771,890 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" cm="1">
+        <f t="array" ref="K62:K68">_xlfn.UNIQUE(I62:I71)</f>
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="K67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973108B-B976-1348-84BC-19AAF39D7C53}">
+  <dimension ref="A1:S127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A93" zoomScale="142" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95:S127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L95" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+    </row>
+    <row r="97" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+    </row>
+    <row r="98" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+    </row>
+    <row r="99" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+    </row>
+    <row r="100" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+    </row>
+    <row r="101" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+    </row>
+    <row r="102" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+    </row>
+    <row r="103" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+    </row>
+    <row r="104" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+    </row>
+    <row r="105" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+    </row>
+    <row r="106" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+    </row>
+    <row r="107" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+    </row>
+    <row r="108" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+    </row>
+    <row r="109" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+    </row>
+    <row r="110" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+    </row>
+    <row r="111" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+    </row>
+    <row r="112" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+    </row>
+    <row r="113" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+    </row>
+    <row r="114" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+    </row>
+    <row r="115" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+    </row>
+    <row r="116" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+    </row>
+    <row r="117" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+    </row>
+    <row r="118" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+    </row>
+    <row r="119" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+    </row>
+    <row r="120" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+    </row>
+    <row r="121" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+    </row>
+    <row r="122" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+    </row>
+    <row r="123" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+    </row>
+    <row r="124" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+    </row>
+    <row r="125" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
+    </row>
+    <row r="126" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+    </row>
+    <row r="127" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L95:S127"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>